--- a/InputFiles/ICDC/TC01_ICDC_UBC02_StudyType-Genomics.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_UBC02_StudyType-Genomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90866FA9-F0DD-4872-85A3-0BF5CAF15979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8388C-48D8-4864-9787-75E38D343656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -80,12 +80,12 @@
 END AS "Age", 
     COALESCE(TRIM(dmg.sex), '') AS "Sex",   
     COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
-    COALESCE(
+     COALESCE(
         CASE 
-            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(dmg.weight AS INT)
-            ELSE dmg.weight 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(dmg.weight AS INT) AS TEXT)
+            ELSE CAST(dmg.weight AS TEXT)
         END, 
-    '') AS "Weight (kg)",        
+    '') AS "Weight (kg)",      
     COALESCE(diag.best_response, '') AS "Response to Treatment",  
     COALESCE(coh.cohort_description, '') AS "Cohort"  
 FROM 
@@ -109,41 +109,12 @@
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN
-    df_cohort coh ON c."cohort.cohort_id" = coh.cohort_record_id
+    df_cohort coh ON coh.cohort_record_id = c."cohort.cohort_record_id"
 WHERE
     st.clinical_study_designation = 'UBC02' AND st.clinical_study_type = 'Genomics'
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'UBC02' AND st.clinical_study_type = 'Genomics';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -231,7 +202,9 @@
         END
 END AS "Size",
     'sample' AS "Association",
-    cf.file_description AS "Description",
+COALESCE(TRIM(
+    REPLACE(REPLACE(REPLACE(cf.file_description, '  ', ' '), '   ', ' '), '    ', ' ')
+), '') AS "Description",
     smp.sample_id AS "Sample ID",
     c.case_record_id AS "Case ID",
     dmg.breed AS "Breed",
@@ -319,6 +292,35 @@
 ORDER BY 
     sf.file_name ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files" 
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+  st.clinical_study_designation = 'UBC02' AND st.clinical_study_type = 'Genomics';</t>
   </si>
 </sst>
 </file>
@@ -710,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -761,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -770,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -779,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>

--- a/InputFiles/ICDC/TC01_ICDC_UBC02_StudyType-Genomics.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_UBC02_StudyType-Genomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B8388C-48D8-4864-9787-75E38D343656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBDCFB-ADA0-4817-8E34-0DE3BE7D608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
